--- a/inst/data.xlsx
+++ b/inst/data.xlsx
@@ -1,30 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample Dataset KoboloadeR" sheetId="1" r:id="rId1"/>
-    <sheet name="members" sheetId="2" r:id="rId2"/>
+    <sheet name="Sample Dataset KoboloadeR" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="members" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>profile.country</t>
+  </si>
+  <si>
+    <t>profile.occupation</t>
+  </si>
+  <si>
+    <t>profile.reason</t>
+  </si>
+  <si>
+    <t>profile.reason.accomodation</t>
+  </si>
+  <si>
+    <t>profile.reason.employment</t>
+  </si>
+  <si>
+    <t>profile.reason.education</t>
+  </si>
+  <si>
+    <t>profile.reason.community</t>
+  </si>
+  <si>
+    <t>profile.reason.safety</t>
+  </si>
+  <si>
+    <t>profile.reason.movement</t>
+  </si>
+  <si>
+    <t>profile.reason.reunification</t>
+  </si>
+  <si>
+    <t>profile.reason.no_answer</t>
+  </si>
+  <si>
+    <t>profile.reason.other</t>
+  </si>
+  <si>
+    <t>profile.HHSize</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>_uuid</t>
+  </si>
+  <si>
+    <t>_submission_time</t>
+  </si>
+  <si>
+    <t>_validation_status</t>
+  </si>
+  <si>
+    <t>_notes</t>
+  </si>
+  <si>
+    <t>_status</t>
+  </si>
+  <si>
+    <t>_submitted_by</t>
+  </si>
+  <si>
+    <t>_tags</t>
+  </si>
+  <si>
+    <t>_index</t>
+  </si>
+  <si>
+    <t>private_facility</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accomodation employment education community</t>
+  </si>
+  <si>
+    <t>48cc75b7-3d86-4c3e-a99b-24b4032b7b9c</t>
+  </si>
+  <si>
+    <t>submitted_via_web</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accomodation education community reunification</t>
+  </si>
+  <si>
+    <t>f1c3d36c-3c25-4581-9f35-9c8ec405d744</t>
+  </si>
+  <si>
+    <t>subcenter</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education reunification</t>
+  </si>
+  <si>
+    <t>1bac725f-16e4-41b0-8be3-89d267d5c78a</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">safety movement</t>
+  </si>
+  <si>
+    <t>aa9f078c-afbe-404d-95cb-55657d5a1050</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">employment education</t>
+  </si>
+  <si>
+    <t>e831612e-e6c5-40fc-8184-b81effb00bdb</t>
+  </si>
+  <si>
+    <t>members.age</t>
+  </si>
+  <si>
+    <t>members.sex</t>
+  </si>
+  <si>
+    <t>_parent_table_name</t>
+  </si>
+  <si>
+    <t>_parent_index</t>
+  </si>
+  <si>
+    <t>_submission__id</t>
+  </si>
+  <si>
+    <t>_submission__uuid</t>
+  </si>
+  <si>
+    <t>_submission__submission_time</t>
+  </si>
+  <si>
+    <t>_submission__validation_status</t>
+  </si>
+  <si>
+    <t>_submission__notes</t>
+  </si>
+  <si>
+    <t>_submission__status</t>
+  </si>
+  <si>
+    <t>_submission__submitted_by</t>
+  </si>
+  <si>
+    <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Dataset KoboloadeR</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="160" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,21 +235,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -106,13 +304,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -140,13 +338,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -343,167 +541,325 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" style="1" width="19.28125"/>
+    <col customWidth="1" min="2" max="2" style="1" width="27.00390625"/>
+    <col bestFit="1" min="19" max="19" width="9.8515625"/>
+    <col customWidth="1" min="24" max="24" width="4.8515625"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>today</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>profile.country</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>profile.occupation</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>profile.reason</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>profile.reason.accomodation</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>profile.reason.employment</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>profile.reason.education</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>profile.reason.community</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>profile.reason.safety</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>profile.reason.movement</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>profile.reason.reunification</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>profile.reason.no_answer</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>profile.reason.other</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>profile.HHSize</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>_id</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>_uuid</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>_submission_time</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>_validation_status</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>_notes</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>_status</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>_submitted_by</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>_tags</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>_index</t>
-        </is>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>44684</v>
+        <v>44861.373586886577</v>
       </c>
       <c r="B2" s="1">
-        <v>44672</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>private_facility</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>VEN</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Consultant</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>accomodation employment education community</t>
-        </is>
+        <v>44875.367471550933</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -538,18 +894,14 @@
       <c r="Q2">
         <v>20759478</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>48cc75b7-3d86-4c3e-a99b-24b4032b7b9c</t>
-        </is>
-      </c>
-      <c r="S2" s="1">
-        <v>44685.89497685185</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="3">
+        <v>44685.894976851851</v>
+      </c>
+      <c r="V2" t="s">
+        <v>30</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -557,30 +909,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>44684</v>
+        <v>44858.483944490741</v>
       </c>
       <c r="B3" s="1">
-        <v>44684</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>HND</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>farmer</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>accomodation education community reunification</t>
-        </is>
+        <v>44858.656945543982</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -615,18 +959,14 @@
       <c r="Q3">
         <v>20756978</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>f1c3d36c-3c25-4581-9f35-9c8ec405d744</t>
-        </is>
-      </c>
-      <c r="S3" s="1">
-        <v>44685.84391203704</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="3">
+        <v>44685.843912037039</v>
+      </c>
+      <c r="V3" t="s">
+        <v>30</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -634,30 +974,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>44684</v>
+        <v>44860.680266342591</v>
       </c>
       <c r="B4" s="1">
-        <v>44671</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>subcenter</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SLV</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>vendor</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>education reunification</t>
-        </is>
+        <v>44860.760506041668</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -692,18 +1024,14 @@
       <c r="Q4">
         <v>20756927</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1bac725f-16e4-41b0-8be3-89d267d5c78a</t>
-        </is>
-      </c>
-      <c r="S4" s="1">
-        <v>44685.84304398148</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="3">
+        <v>44685.843043981477</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
       </c>
       <c r="Y4">
         <v>3</v>
@@ -711,30 +1039,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>44684</v>
+        <v>44860.680266342591</v>
       </c>
       <c r="B5" s="1">
-        <v>44683</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>subcenter</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SLV</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>teacher</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>safety movement</t>
-        </is>
+        <v>44860.743915636573</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -769,18 +1089,14 @@
       <c r="Q5">
         <v>20756897</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>aa9f078c-afbe-404d-95cb-55657d5a1050</t>
-        </is>
-      </c>
-      <c r="S5" s="1">
+      <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="3">
         <v>44685.84238425926</v>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="V5" t="s">
+        <v>30</v>
       </c>
       <c r="Y5">
         <v>4</v>
@@ -788,30 +1104,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>44684</v>
+        <v>44860.584797731477</v>
       </c>
       <c r="B6" s="1">
-        <v>44685</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>COL</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>farmer</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>employment education</t>
-        </is>
+        <v>44860.67390396991</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -846,119 +1154,93 @@
       <c r="Q6">
         <v>20756856</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>e831612e-e6c5-40fc-8184-b81effb00bdb</t>
-        </is>
-      </c>
-      <c r="S6" s="1">
-        <v>44685.84126157407</v>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="3">
+        <v>44685.841261574067</v>
+      </c>
+      <c r="V6" t="s">
+        <v>30</v>
       </c>
       <c r="Y6">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="17.8515625"/>
+    <col customWidth="1" min="11" max="11" width="25.140625"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>members.age</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>members.sex</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>_index</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>_parent_table_name</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>_parent_index</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>_submission__id</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>_submission__uuid</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>_submission__submission_time</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>_submission__validation_status</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>_submission__notes</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>_submission__status</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>_submission__submitted_by</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>_submission__tags</t>
-        </is>
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>56</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="B2" t="s">
+        <v>59</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D2" t="s">
+        <v>60</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -966,36 +1248,28 @@
       <c r="F2">
         <v>20759478</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>48cc75b7-3d86-4c3e-a99b-24b4032b7b9c</t>
-        </is>
-      </c>
-      <c r="H2" s="1">
-        <v>44685.89497685185</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44685.894976851851</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="B3" t="s">
+        <v>59</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D3" t="s">
+        <v>60</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1003,36 +1277,28 @@
       <c r="F3">
         <v>20756978</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>f1c3d36c-3c25-4581-9f35-9c8ec405d744</t>
-        </is>
-      </c>
-      <c r="H3" s="1">
-        <v>44685.84391203704</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3">
+        <v>44685.843912037039</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="B4" t="s">
+        <v>59</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D4" t="s">
+        <v>60</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1040,36 +1306,28 @@
       <c r="F4">
         <v>20756978</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>f1c3d36c-3c25-4581-9f35-9c8ec405d744</t>
-        </is>
-      </c>
-      <c r="H4" s="1">
-        <v>44685.84391203704</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44685.843912037039</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="B5" t="s">
+        <v>61</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D5" t="s">
+        <v>60</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1077,36 +1335,28 @@
       <c r="F5">
         <v>20756978</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>f1c3d36c-3c25-4581-9f35-9c8ec405d744</t>
-        </is>
-      </c>
-      <c r="H5" s="1">
-        <v>44685.84391203704</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44685.843912037039</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
         <v>45</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="B6" t="s">
+        <v>59</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D6" t="s">
+        <v>60</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1114,36 +1364,28 @@
       <c r="F6">
         <v>20756978</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>f1c3d36c-3c25-4581-9f35-9c8ec405d744</t>
-        </is>
-      </c>
-      <c r="H6" s="1">
-        <v>44685.84391203704</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44685.843912037039</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
         <v>35</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="B7" t="s">
+        <v>61</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D7" t="s">
+        <v>60</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1151,36 +1393,28 @@
       <c r="F7">
         <v>20756978</v>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>f1c3d36c-3c25-4581-9f35-9c8ec405d744</t>
-        </is>
-      </c>
-      <c r="H7" s="1">
-        <v>44685.84391203704</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44685.843912037039</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="B8" t="s">
+        <v>59</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D8" t="s">
+        <v>60</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -1188,36 +1422,28 @@
       <c r="F8">
         <v>20756927</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1bac725f-16e4-41b0-8be3-89d267d5c78a</t>
-        </is>
-      </c>
-      <c r="H8" s="1">
-        <v>44685.84304398148</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44685.843043981477</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
         <v>34</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="B9" t="s">
+        <v>61</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D9" t="s">
+        <v>60</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1225,36 +1451,28 @@
       <c r="F9">
         <v>20756927</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1bac725f-16e4-41b0-8be3-89d267d5c78a</t>
-        </is>
-      </c>
-      <c r="H9" s="1">
-        <v>44685.84304398148</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44685.843043981477</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
         <v>34</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="B10" t="s">
+        <v>59</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D10" t="s">
+        <v>60</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1262,36 +1480,28 @@
       <c r="F10">
         <v>20756927</v>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1bac725f-16e4-41b0-8be3-89d267d5c78a</t>
-        </is>
-      </c>
-      <c r="H10" s="1">
-        <v>44685.84304398148</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44685.843043981477</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
         <v>51</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="B11" t="s">
+        <v>61</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D11" t="s">
+        <v>60</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -1299,36 +1509,28 @@
       <c r="F11">
         <v>20756897</v>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>aa9f078c-afbe-404d-95cb-55657d5a1050</t>
-        </is>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3">
         <v>44685.84238425926</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="K11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
         <v>21</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D12" t="s">
+        <v>60</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1336,36 +1538,28 @@
       <c r="F12">
         <v>20756856</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>e831612e-e6c5-40fc-8184-b81effb00bdb</t>
-        </is>
-      </c>
-      <c r="H12" s="1">
-        <v>44685.84126157407</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44685.841261574067</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
         <v>25</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
+      <c r="B13" t="s">
+        <v>61</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sample Dataset KoboloadeR</t>
-        </is>
+      <c r="D13" t="s">
+        <v>60</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1373,21 +1567,20 @@
       <c r="F13">
         <v>20756856</v>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>e831612e-e6c5-40fc-8184-b81effb00bdb</t>
-        </is>
-      </c>
-      <c r="H13" s="1">
-        <v>44685.84126157407</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>submitted_via_web</t>
-        </is>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44685.841261574067</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>